--- a/customers.xlsx
+++ b/customers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Speech Sales Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE72BBE1-5387-4ED0-AEC1-2E2C134F0D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB09B0E-B083-4872-B614-63A4C612BC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,34 +31,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="9">
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>mohit.creerinfotech@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmedabad </t>
+  </si>
+  <si>
+    <t>Trushil Lad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mohit Aswani </t>
+  </si>
+  <si>
+    <t>Shreeji Nandola</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
   <si>
     <t>Customer_Name</t>
-  </si>
-  <si>
-    <t>Phone_Number</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>City</t>
-  </si>
-  <si>
-    <t>mohit.creerinfotech@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmedabad </t>
-  </si>
-  <si>
-    <t>Trushil Lad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +87,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF121C2D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -119,12 +131,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -464,11 +477,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -480,36 +491,67 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>919510038048</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>919328027733</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>9510038048</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="B4" s="3">
+        <v>919106284482</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{8D797BD6-E627-47C4-894A-C8584D3C76DC}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{D8DC652F-AC87-4B95-99E7-030FCE074454}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{E7E27799-176A-400F-BB4E-00572D357182}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>